--- a/co2mpas/demos/co2mpas_demo_2_wltp_high_only.xlsx
+++ b/co2mpas/demos/co2mpas_demo_2_wltp_high_only.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="285" windowWidth="14805" windowHeight="7830"/>
+    <workbookView xWindow="240" yWindow="285" windowWidth="14805" windowHeight="7830" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Inputs" sheetId="1" r:id="rId1"/>
@@ -15,13 +15,15 @@
     <sheet name="gear_box_ratios" sheetId="2" r:id="rId6"/>
     <sheet name="T1_map" sheetId="6" r:id="rId7"/>
     <sheet name="velocity_speed_ratios" sheetId="11" r:id="rId8"/>
+    <sheet name="fuel_params" sheetId="13" r:id="rId9"/>
   </sheets>
   <calcPr calcId="145621"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="599" uniqueCount="300">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="611" uniqueCount="311">
   <si>
     <t>fuel</t>
   </si>
@@ -922,6 +924,39 @@
   <si>
     <t>Start-stop activation time threshold, currently not used by the model to be enabled at future releases</t>
   </si>
+  <si>
+    <t>#fuel_params!A2:B_:["dict"]</t>
+  </si>
+  <si>
+    <t>Param Name</t>
+  </si>
+  <si>
+    <t>a2</t>
+  </si>
+  <si>
+    <t>b2</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>l</t>
+  </si>
+  <si>
+    <t>l2</t>
+  </si>
+  <si>
+    <t>t</t>
+  </si>
+  <si>
+    <t>trg</t>
+  </si>
 </sst>
 </file>
 
@@ -1389,7 +1424,7 @@
     <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -1595,6 +1630,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Good" xfId="2" builtinId="26"/>
@@ -1602,7 +1638,127 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
-  <dxfs count="11">
+  <dxfs count="23">
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color auto="1"/>
@@ -2785,7 +2941,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I95"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29:C34"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3467,7 +3625,9 @@
       <c r="B30" s="45" t="s">
         <v>116</v>
       </c>
-      <c r="C30" s="56"/>
+      <c r="C30" s="68" t="s">
+        <v>300</v>
+      </c>
       <c r="D30" s="47" t="s">
         <v>4</v>
       </c>
@@ -4712,59 +4872,79 @@
       <c r="F95" s="44"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <conditionalFormatting sqref="C75 C89:C94 C77:C87">
-    <cfRule type="expression" dxfId="10" priority="80">
+    <cfRule type="expression" dxfId="22" priority="86">
       <formula>#REF!=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3:C7 C25 C9 C11 C61:C72">
-    <cfRule type="expression" dxfId="9" priority="92">
+    <cfRule type="expression" dxfId="21" priority="98">
       <formula>#REF!=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C57:C58 C14:C16 C8 C10 C27:C31 C21 C23 C18:C19">
-    <cfRule type="expression" dxfId="8" priority="95">
+  <conditionalFormatting sqref="C57:C58 C14:C16 C8 C10 C27:C28 C21 C23 C18:C19">
+    <cfRule type="expression" dxfId="20" priority="101">
       <formula>#REF!=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C15 C3:C6 C61:C72">
-    <cfRule type="expression" dxfId="7" priority="101">
+    <cfRule type="expression" dxfId="19" priority="107">
       <formula>AND(#REF!=0,#REF!=1)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C57:C58 C14:C16 C7:C11 C27:C31 C21 C25 C23 C18:C19">
-    <cfRule type="expression" dxfId="6" priority="105">
+  <conditionalFormatting sqref="C57:C58 C14:C16 C7:C11 C27:C28 C21 C25 C23 C18:C19">
+    <cfRule type="expression" dxfId="18" priority="111">
+      <formula>AND(#REF!=1,#REF!=0)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C59">
+    <cfRule type="expression" dxfId="15" priority="9">
+      <formula>#REF!=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C59">
+    <cfRule type="expression" dxfId="14" priority="10">
+      <formula>AND(#REF!=1,#REF!=0)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C26">
+    <cfRule type="expression" dxfId="13" priority="7">
+      <formula>#REF!=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C26">
+    <cfRule type="expression" dxfId="12" priority="8">
+      <formula>AND(#REF!=1,#REF!=0)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C29 C31">
+    <cfRule type="expression" dxfId="11" priority="5">
+      <formula>#REF!=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C29 C31">
+    <cfRule type="expression" dxfId="9" priority="6">
       <formula>AND(#REF!=1,#REF!=0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C32:C34">
-    <cfRule type="expression" dxfId="5" priority="12">
+    <cfRule type="expression" dxfId="7" priority="3">
       <formula>#REF!=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C32:C34">
-    <cfRule type="expression" dxfId="4" priority="13">
+    <cfRule type="expression" dxfId="5" priority="4">
       <formula>AND(#REF!=1,#REF!=0)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C59">
-    <cfRule type="expression" dxfId="3" priority="3">
+  <conditionalFormatting sqref="C30">
+    <cfRule type="expression" dxfId="3" priority="1">
       <formula>#REF!=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C59">
-    <cfRule type="expression" dxfId="2" priority="4">
-      <formula>AND(#REF!=1,#REF!=0)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C26">
-    <cfRule type="expression" dxfId="1" priority="1">
-      <formula>#REF!=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C26">
-    <cfRule type="expression" dxfId="0" priority="2">
+  <conditionalFormatting sqref="C30">
+    <cfRule type="expression" dxfId="1" priority="2">
       <formula>AND(#REF!=1,#REF!=0)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -50970,4 +51150,88 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
+        <v>302</v>
+      </c>
+      <c r="B2" s="10"/>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="11" t="s">
+        <v>303</v>
+      </c>
+      <c r="B3" s="12"/>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="11" t="s">
+        <v>304</v>
+      </c>
+      <c r="B4" s="12"/>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="11" t="s">
+        <v>305</v>
+      </c>
+      <c r="B5" s="12"/>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="11" t="s">
+        <v>306</v>
+      </c>
+      <c r="B6" s="12"/>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="11" t="s">
+        <v>307</v>
+      </c>
+      <c r="B7" s="12"/>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="11" t="s">
+        <v>308</v>
+      </c>
+      <c r="B8" s="12"/>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="11" t="s">
+        <v>309</v>
+      </c>
+      <c r="B9" s="12"/>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="13" t="s">
+        <v>310</v>
+      </c>
+      <c r="B10" s="14"/>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="69"/>
+      <c r="B11" s="69"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>